--- a/report/DB관리대장_종합_2021.11.xlsx
+++ b/report/DB관리대장_종합_2021.11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="83">
   <si>
     <t/>
   </si>
@@ -219,6 +219,48 @@
   </si>
   <si>
     <t>51%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>26%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>22%</t>
   </si>
 </sst>
 </file>
@@ -748,15 +790,33 @@
       <c r="F8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1168,15 +1228,33 @@
       <c r="F19" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1588,15 +1666,33 @@
       <c r="F30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -1970,15 +2066,33 @@
       <c r="F40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
@@ -2010,15 +2124,33 @@
       <c r="F41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
@@ -2050,15 +2182,33 @@
       <c r="F42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
@@ -2090,15 +2240,33 @@
       <c r="F43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -2130,15 +2298,33 @@
       <c r="F44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -2170,15 +2356,33 @@
       <c r="F45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>

--- a/report/DB관리대장_종합_2021.11.xlsx
+++ b/report/DB관리대장_종합_2021.11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="96">
   <si>
     <t/>
   </si>
@@ -261,6 +261,45 @@
   </si>
   <si>
     <t>22%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>53%</t>
   </si>
 </sst>
 </file>
@@ -815,26 +854,60 @@
         <v>81</v>
       </c>
       <c r="O8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
+      <c r="AD8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="4">
@@ -1255,24 +1328,58 @@
       <c r="O19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
+      <c r="X19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" t="s" s="4">
@@ -1691,26 +1798,60 @@
         <v>67</v>
       </c>
       <c r="O30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
+      <c r="Q30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
+      <c r="X30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG30" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="s" s="4">
@@ -2093,24 +2234,58 @@
       <c r="O40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
+      <c r="P40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
+      <c r="X40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG40" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="4">
@@ -2151,24 +2326,58 @@
       <c r="O41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
+      <c r="P41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
+      <c r="X41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG41" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="4">
@@ -2209,24 +2418,58 @@
       <c r="O42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
+      <c r="P42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
+      <c r="X42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG42" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="43">
       <c r="B43" t="s" s="4">
@@ -2267,24 +2510,58 @@
       <c r="O43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
+      <c r="P43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
+      <c r="X43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="4">
@@ -2323,26 +2600,60 @@
         <v>62</v>
       </c>
       <c r="O44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
+      <c r="S44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
+      <c r="X44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG44" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" t="s" s="4">
@@ -2383,24 +2694,58 @@
       <c r="O45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
+      <c r="P45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
+      <c r="X45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG45" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" t="s" s="4">
